--- a/DPI_Table_Audit/RefreshToken_15-10-2024.xlsx
+++ b/DPI_Table_Audit/RefreshToken_15-10-2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>S.No</t>
   </si>
@@ -52,16 +52,28 @@
     <t>RefreshToken</t>
   </si>
   <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>ReplacedByToken</t>
-  </si>
-  <si>
     <t>nvarchar</t>
   </si>
   <si>
-    <t>MAX</t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>StateId</t>
+  </si>
+  <si>
+    <t>DivisionId</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>OfficeTypeId</t>
+  </si>
+  <si>
+    <t>OfficeCode</t>
   </si>
 </sst>
 </file>
@@ -161,27 +173,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -502,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,36 +558,54 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>400</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>400</v>
+      <c r="G5">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
